--- a/Drites AusbildungsJahr/P-AS/db-5 tabels.xlsx
+++ b/Drites AusbildungsJahr/P-AS/db-5 tabels.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahd/DEV/OSZIMT-repo-ITA12_aps/Drites AusbildungsJahr/P-AS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8FD39E-F918-A945-A3C1-1A53A4200CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2DD38C-F7BE-A143-8E96-8E0A67EA5999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18560" yWindow="500" windowWidth="32640" windowHeight="31500" xr2:uid="{416D19F0-2F16-B842-BA94-06893C431FC6}"/>
+    <workbookView xWindow="25920" yWindow="500" windowWidth="25280" windowHeight="31500" xr2:uid="{416D19F0-2F16-B842-BA94-06893C431FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>kunden_nr</t>
   </si>
@@ -68,9 +68,6 @@
     <t>reperatur_nr</t>
   </si>
   <si>
-    <t>hersteler</t>
-  </si>
-  <si>
     <t>kunden_t</t>
   </si>
   <si>
@@ -120,6 +117,30 @@
   </si>
   <si>
     <t>email</t>
+  </si>
+  <si>
+    <t>hersteller_t</t>
+  </si>
+  <si>
+    <t>hersteller_id</t>
+  </si>
+  <si>
+    <t>vst</t>
+  </si>
+  <si>
+    <t>f_rahmen_nr</t>
+  </si>
+  <si>
+    <t>f_modell_id</t>
+  </si>
+  <si>
+    <t>f_hersteler_id</t>
+  </si>
+  <si>
+    <t>f_material_nr</t>
+  </si>
+  <si>
+    <t>f_kunden_nr</t>
   </si>
 </sst>
 </file>
@@ -204,9 +225,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AE7144F8-612E-8C42-8474-A314ABD47954}" name="Table2" displayName="Table2" ref="A5:C6" totalsRowShown="0">
   <autoFilter ref="A5:C6" xr:uid="{AE7144F8-612E-8C42-8474-A314ABD47954}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{DFD830E8-D159-164C-8778-AB28C6DA46EE}" name="kunden_nr"/>
+    <tableColumn id="1" xr3:uid="{DFD830E8-D159-164C-8778-AB28C6DA46EE}" name="f_kunden_nr"/>
     <tableColumn id="2" xr3:uid="{72A9ED51-DA6F-5C4B-8DE1-E1FD737EF1B4}" name="rahmen_nr"/>
-    <tableColumn id="3" xr3:uid="{C936BBD5-3318-3A49-B771-7CC05F9D0387}" name="modell_id"/>
+    <tableColumn id="3" xr3:uid="{C936BBD5-3318-3A49-B771-7CC05F9D0387}" name="f_modell_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -220,11 +241,11 @@
     <tableColumn id="2" xr3:uid="{EC3033BF-2FD0-9941-AD87-8FD5F8D7207E}" name="arbeitsumfang"/>
     <tableColumn id="3" xr3:uid="{9BE12E78-878A-184C-98AA-167088BE0934}" name="datum"/>
     <tableColumn id="4" xr3:uid="{29F81D09-9BAE-8047-8994-EAD6A26D6873}" name="reperaturzeitinh"/>
-    <tableColumn id="5" xr3:uid="{D129FA8A-8CA0-5547-91DA-97A53E7E7571}" name="material_nr"/>
+    <tableColumn id="5" xr3:uid="{D129FA8A-8CA0-5547-91DA-97A53E7E7571}" name="f_material_nr"/>
     <tableColumn id="6" xr3:uid="{7022A0E6-B66D-1641-914A-B082A8643CBA}" name="anzahl"/>
     <tableColumn id="7" xr3:uid="{712612BE-F450-CC49-9BF8-2E8103858B0A}" name="abholdatum"/>
     <tableColumn id="8" xr3:uid="{CDEB5478-1766-FE48-95AB-FB7B3905F7FB}" name="rechnung"/>
-    <tableColumn id="9" xr3:uid="{AE091317-8897-484B-AE1A-61A37AA7A196}" name="rahmen_nr"/>
+    <tableColumn id="9" xr3:uid="{AE091317-8897-484B-AE1A-61A37AA7A196}" name="f_rahmen_nr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -235,7 +256,7 @@
   <autoFilter ref="A11:B12" xr:uid="{3FFE91A6-090C-ED47-A2AB-C8F6225B5A0B}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{739F6BB3-4FA5-9E47-8632-009B07CF62AA}" name="modell_id"/>
-    <tableColumn id="2" xr3:uid="{E05BB162-5DC2-4746-A869-5F6087A989E2}" name="hersteler"/>
+    <tableColumn id="2" xr3:uid="{E05BB162-5DC2-4746-A869-5F6087A989E2}" name="f_hersteler_id"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -248,6 +269,23 @@
     <tableColumn id="1" xr3:uid="{92416263-64F3-4948-AEF5-1BD8A183465C}" name="material_nr"/>
     <tableColumn id="2" xr3:uid="{22BED976-6C6C-1145-8EA6-2777AE7ED8CE}" name="name"/>
     <tableColumn id="3" xr3:uid="{8B97AF97-47CE-CD4E-AB5C-AFED97AE73AD}" name="einzelpreis"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D41B9499-BABD-0948-B3D5-726785046D9B}" name="Table6" displayName="Table6" ref="A18:H19" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A18:H19" xr:uid="{D41B9499-BABD-0948-B3D5-726785046D9B}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{8CAFF984-3E54-6645-B4EC-9870C6EF884F}" name="hersteller_id"/>
+    <tableColumn id="2" xr3:uid="{035A0066-1681-C44E-8F39-196AE9C63BA9}" name="name"/>
+    <tableColumn id="3" xr3:uid="{5D0EE689-A8C5-8540-BDC4-BC6A242D72FC}" name="strasse"/>
+    <tableColumn id="4" xr3:uid="{60175F0F-A701-4449-B522-ECB4CFC392B8}" name="hausnummer"/>
+    <tableColumn id="5" xr3:uid="{FBF4A7A2-301B-604A-8FEF-8CEA7349970E}" name="plz"/>
+    <tableColumn id="6" xr3:uid="{9C6E057C-4F9C-3B4E-B8A4-447195E4F470}" name="ort"/>
+    <tableColumn id="7" xr3:uid="{3608367A-4F93-D64E-B8B2-3F2A84383FFB}" name="land"/>
+    <tableColumn id="8" xr3:uid="{E7BA52BB-12C6-C84E-A8A6-44FBE678ED1C}" name="vst"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -550,16 +588,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F447CBB8-58B2-6D44-BF89-AAADDA6A2907}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="220" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="220" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
+    <col min="1" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -568,7 +605,7 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -597,31 +634,31 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -629,67 +666,100 @@
         <v>9</v>
       </c>
       <c r="B8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
+        <v>21</v>
+      </c>
+      <c r="H8" t="s">
         <v>22</v>
       </c>
-      <c r="H8" t="s">
-        <v>23</v>
-      </c>
       <c r="I8" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>5</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Drites AusbildungsJahr/P-AS/db-5 tabels.xlsx
+++ b/Drites AusbildungsJahr/P-AS/db-5 tabels.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mahd/DEV/OSZIMT-repo-ITA12_aps/Drites AusbildungsJahr/P-AS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B2DD38C-F7BE-A143-8E96-8E0A67EA5999}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81E15D71-4AAE-4746-BC2D-D68ED260D6C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25920" yWindow="500" windowWidth="25280" windowHeight="31500" xr2:uid="{416D19F0-2F16-B842-BA94-06893C431FC6}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="31500" xr2:uid="{416D19F0-2F16-B842-BA94-06893C431FC6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>kunden_nr</t>
   </si>
@@ -74,9 +75,6 @@
     <t>reperatur_t</t>
   </si>
   <si>
-    <t>arbeitsumfang</t>
-  </si>
-  <si>
     <t>datum</t>
   </si>
   <si>
@@ -104,9 +102,6 @@
     <t>abholdatum</t>
   </si>
   <si>
-    <t>rechnung</t>
-  </si>
-  <si>
     <t>fahrad_t</t>
   </si>
   <si>
@@ -141,13 +136,19 @@
   </si>
   <si>
     <t>f_kunden_nr</t>
+  </si>
+  <si>
+    <t>rechnung_t</t>
+  </si>
+  <si>
+    <t>rechnung_nr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -161,16 +162,29 @@
       <name val="CaskaydiaCove Nerd Font Mono"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="CaskaydiaCove Nerd Font Mono"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor theme="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -178,13 +192,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -234,18 +264,15 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E9A87C0-DDDD-914E-B8FA-75AD4CE74839}" name="Table3" displayName="Table3" ref="A8:I9" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A8:I9" xr:uid="{0E9A87C0-DDDD-914E-B8FA-75AD4CE74839}"/>
-  <tableColumns count="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{0E9A87C0-DDDD-914E-B8FA-75AD4CE74839}" name="Table3" displayName="Table3" ref="A8:F9" totalsRowShown="0">
+  <autoFilter ref="A8:F9" xr:uid="{0E9A87C0-DDDD-914E-B8FA-75AD4CE74839}"/>
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{13EAC837-330D-114C-838C-ED416A709830}" name="reperatur_nr"/>
-    <tableColumn id="2" xr3:uid="{EC3033BF-2FD0-9941-AD87-8FD5F8D7207E}" name="arbeitsumfang"/>
-    <tableColumn id="3" xr3:uid="{9BE12E78-878A-184C-98AA-167088BE0934}" name="datum"/>
-    <tableColumn id="4" xr3:uid="{29F81D09-9BAE-8047-8994-EAD6A26D6873}" name="reperaturzeitinh"/>
-    <tableColumn id="5" xr3:uid="{D129FA8A-8CA0-5547-91DA-97A53E7E7571}" name="f_material_nr"/>
-    <tableColumn id="6" xr3:uid="{7022A0E6-B66D-1641-914A-B082A8643CBA}" name="anzahl"/>
-    <tableColumn id="7" xr3:uid="{712612BE-F450-CC49-9BF8-2E8103858B0A}" name="abholdatum"/>
-    <tableColumn id="8" xr3:uid="{CDEB5478-1766-FE48-95AB-FB7B3905F7FB}" name="rechnung"/>
-    <tableColumn id="9" xr3:uid="{AE091317-8897-484B-AE1A-61A37AA7A196}" name="f_rahmen_nr"/>
+    <tableColumn id="2" xr3:uid="{EC3033BF-2FD0-9941-AD87-8FD5F8D7207E}" name="datum"/>
+    <tableColumn id="3" xr3:uid="{9BE12E78-878A-184C-98AA-167088BE0934}" name="reperaturzeitinh"/>
+    <tableColumn id="4" xr3:uid="{29F81D09-9BAE-8047-8994-EAD6A26D6873}" name="abholdatum"/>
+    <tableColumn id="5" xr3:uid="{D129FA8A-8CA0-5547-91DA-97A53E7E7571}" name="rechnung_nr"/>
+    <tableColumn id="6" xr3:uid="{7022A0E6-B66D-1641-914A-B082A8643CBA}" name="f_rahmen_nr"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -275,8 +302,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D41B9499-BABD-0948-B3D5-726785046D9B}" name="Table6" displayName="Table6" ref="A18:H19" insertRow="1" totalsRowShown="0">
-  <autoFilter ref="A18:H19" xr:uid="{D41B9499-BABD-0948-B3D5-726785046D9B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D41B9499-BABD-0948-B3D5-726785046D9B}" name="Table6" displayName="Table6" ref="A17:H18" insertRow="1" totalsRowShown="0">
+  <autoFilter ref="A17:H18" xr:uid="{D41B9499-BABD-0948-B3D5-726785046D9B}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{8CAFF984-3E54-6645-B4EC-9870C6EF884F}" name="hersteller_id"/>
     <tableColumn id="2" xr3:uid="{035A0066-1681-C44E-8F39-196AE9C63BA9}" name="name"/>
@@ -291,10 +318,23 @@
 </table>
 </file>
 
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{5869601C-EACA-B244-8610-D6DF1C1A67A9}" name="Table7" displayName="Table7" ref="A20:D21" totalsRowShown="0">
+  <autoFilter ref="A20:D21" xr:uid="{5869601C-EACA-B244-8610-D6DF1C1A67A9}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{E3FCBC97-16BA-7341-B406-05C163D8BD83}" name="rechnung_nr"/>
+    <tableColumn id="2" xr3:uid="{26655E31-9424-3A4B-B2C5-64415185DED5}" name="f_material_nr"/>
+    <tableColumn id="3" xr3:uid="{C50E2676-1B24-D348-A88D-5DD38D59ED11}" name="anzahl"/>
+    <tableColumn id="4" xr3:uid="{8333F8FF-B01B-F74F-9858-F5BFD2F2454A}" name="f_kunden_nr"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -332,7 +372,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -438,7 +478,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -580,7 +620,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -588,10 +628,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F447CBB8-58B2-6D44-BF89-AAADDA6A2907}">
-  <dimension ref="A1:J18"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="220" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" zoomScale="220" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -634,26 +674,26 @@
         <v>7</v>
       </c>
       <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2" t="s">
         <v>24</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -665,101 +705,112 @@
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>19</v>
-      </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" t="s">
+        <v>22</v>
+      </c>
+      <c r="H17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
-      <c r="A18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="19" spans="1:8" ht="17" thickBot="1">
+      <c r="A19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" thickBot="1">
+      <c r="A20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C18" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" t="s">
-        <v>4</v>
-      </c>
-      <c r="E18" t="s">
-        <v>5</v>
-      </c>
-      <c r="F18" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" t="s">
-        <v>24</v>
-      </c>
-      <c r="H18" t="s">
-        <v>29</v>
+      <c r="D20" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>